--- a/biology/Médecine/Heffter_Research_Institute/Heffter_Research_Institute.xlsx
+++ b/biology/Médecine/Heffter_Research_Institute/Heffter_Research_Institute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Heffter Research Institute est un institut de recherche destiné à la recherche scientifique sur les substances hallucinogènes. L'institut est établi au Nouveau-Mexique en tant qu'organisme à but non lucratif[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Heffter Research Institute est un institut de recherche destiné à la recherche scientifique sur les substances hallucinogènes. L'institut est établi au Nouveau-Mexique en tant qu'organisme à but non lucratif.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Heffter Research Institute est fondé en 1993 par David E. Nichols et Dennis J. McKenna (frère de Terence McKenna). À ses débuts, l'institut a du mal à obtenir des fonds pour financer ses recherches. En 1996, deux donations atteignant $100.000 sont effectuées par des personnes souhaitant rester anonymes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Heffter Research Institute est fondé en 1993 par David E. Nichols et Dennis J. McKenna (frère de Terence McKenna). À ses débuts, l'institut a du mal à obtenir des fonds pour financer ses recherches. En 1996, deux donations atteignant $100.000 sont effectuées par des personnes souhaitant rester anonymes.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'Institut a été nommé d'après le Dr Arthur Heffter (15 juin 1859 – 8 février 1925), chimiste et pharmacien allemand. Il est voué à la recherche scientifique sur la valeur médicale des psychédéliques[3]. D'autres fondations comme la Beckley Foundation mènent des études similaires[4],[5],[6],[7],[8].
-Sa mission est de soutenir la recherche scientifique sur les hallucinogènes classiques et leurs composés connexes (parfois appelés psychédéliques) afin de contribuer à une meilleure compréhension de l'esprit. Cela permettrait d'améliorer la condition humaine et de soulager la souffrance[9],[10],[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Institut a été nommé d'après le Dr Arthur Heffter (15 juin 1859 – 8 février 1925), chimiste et pharmacien allemand. Il est voué à la recherche scientifique sur la valeur médicale des psychédéliques. D'autres fondations comme la Beckley Foundation mènent des études similaires.
+Sa mission est de soutenir la recherche scientifique sur les hallucinogènes classiques et leurs composés connexes (parfois appelés psychédéliques) afin de contribuer à une meilleure compréhension de l'esprit. Cela permettrait d'améliorer la condition humaine et de soulager la souffrance.
 Afin de minimiser les coûts d'exploitation et mettre en œuvre des projets spécifiques, le HRI collabore avec les écoles de médecine et autres établissements de recherche[réf. nécessaire].
 La recherche est axée sur : 
-l'aide de la psilocybine dans le traitement de la dépression et de l'anxiété chez les patients cancéreux dans trois universités, ainsi que le traitement de la dépendance à l'alcool et au tabagisme[12],[13],[14] ;
-la science fondamentale de la conscience au centre de recherche Heffter à Zürich, en utilisant la psilocybine comme un outil afin de corréler l'expérience consciente avec le fonctionnement du cerveau[15],[16],[17].</t>
+l'aide de la psilocybine dans le traitement de la dépression et de l'anxiété chez les patients cancéreux dans trois universités, ainsi que le traitement de la dépendance à l'alcool et au tabagisme ;
+la science fondamentale de la conscience au centre de recherche Heffter à Zürich, en utilisant la psilocybine comme un outil afin de corréler l'expérience consciente avec le fonctionnement du cerveau.</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Hefter: Psilocybin &amp; End of Life Research | RiverStyx Foundation », sur RiverStyx Foundation (consulté le 2 janvier 2016)
